--- a/wcsa5seleniumproject/data/TestData.xlsx
+++ b/wcsa5seleniumproject/data/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qspiders Wakad\git\wcsa5.1Repository\wcsa5seleniumproject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BB31C1-FBFE-4D9B-A40C-BAFBDA8C86D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECB3521-8B3D-47B3-B879-2C9641D00E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>TEAM</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>S Dhawan</t>
+  </si>
+  <si>
+    <t>Pune</t>
   </si>
 </sst>
 </file>
@@ -439,15 +442,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -455,15 +458,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -471,7 +477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -479,7 +485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -487,7 +493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -495,7 +501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -503,7 +509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -511,7 +517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -519,7 +525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -527,12 +533,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
